--- a/biology/Zoologie/Evarcha_culicivora/Evarcha_culicivora.xlsx
+++ b/biology/Zoologie/Evarcha_culicivora/Evarcha_culicivora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evarcha culicivora est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'a pour le moment été observée qu'au Kenya et en Ouganda, sur les rives du lac Victoria[1]. Elle vit dans la végétation basse et s'aventure parfois sur les murs ou dans les maisons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a pour le moment été observée qu'au Kenya et en Ouganda, sur les rives du lac Victoria. Elle vit dans la végétation basse et s'aventure parfois sur les murs ou dans les maisons.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure entre 3,4 et 6,2 mm et la femelle entre 4,1 et 5,6 mm. Cette espèce affiche un céphalothorax orangé à zone oculaire brun foncé et un abdomen d'un jaune plus ou moins brunâtre avec des marques arrondies brunes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure entre 3,4 et 6,2 mm et la femelle entre 4,1 et 5,6 mm. Cette espèce affiche un céphalothorax orangé à zone oculaire brun foncé et un abdomen d'un jaune plus ou moins brunâtre avec des marques arrondies brunes.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de 75% de l'alimentation des spécimens étudiés était composée de moustiques, essentiellement des femelles[2]et notamment celles dont l'abdomen est visiblement gorgé de sang[3]. Une étude menée en 2009 semble indiquer que la présence de sang donne à l'araignée une odeur attractive pour le sexe opposé[4].
-Evarcha culicivora n'est pas la seule araignée à cibler les moustiques en priorité : elle partage cette particularité avec Paracyrba wanlessi, même si cette dernière préfère les larves et les nymphes aux adultes[2]. Un tel régime, spécialisé, est qualifié de sténophage[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 75% de l'alimentation des spécimens étudiés était composée de moustiques, essentiellement des femelleset notamment celles dont l'abdomen est visiblement gorgé de sang. Une étude menée en 2009 semble indiquer que la présence de sang donne à l'araignée une odeur attractive pour le sexe opposé.
+Evarcha culicivora n'est pas la seule araignée à cibler les moustiques en priorité : elle partage cette particularité avec Paracyrba wanlessi, même si cette dernière préfère les larves et les nymphes aux adultes. Un tel régime, spécialisé, est qualifié de sténophage.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite en 2003 par Wanda Wesołowska et Robert Ray Jackson (d). 
-L'épithète spécifique culicivora vient du latin et signifie "qui mange des moustiques", en références aux habitudes alimentaires de l'espèce[2].
+L'épithète spécifique culicivora vient du latin et signifie "qui mange des moustiques", en références aux habitudes alimentaires de l'espèce.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Wanda Wesolowska et Robert R. Jackson, « Evarcha culicivora sp. nov., a mosquito-eating jumping spider from East Africa (Araneae: Salticidae) », Annales Zoologici, no 53,‎ 2003, p. 335-338
 </t>
